--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,6 +105,12 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>258415003</t>
+  </si>
+  <si>
+    <t>Biopsy specimen (specimen)</t>
+  </si>
+  <si>
     <t>119359002</t>
   </si>
   <si>
@@ -141,6 +147,18 @@
     <t>Tissue specimen from placenta (specimen)</t>
   </si>
   <si>
+    <t>258589002</t>
+  </si>
+  <si>
+    <t>Lymph node specimen (specimen)</t>
+  </si>
+  <si>
+    <t>258542004</t>
+  </si>
+  <si>
+    <t>Heart valve specimen (specimen)</t>
+  </si>
+  <si>
     <t>258450006</t>
   </si>
   <si>
@@ -159,10 +177,64 @@
     <t>Peritoneal fluid specimen (specimen)</t>
   </si>
   <si>
+    <t>119396006</t>
+  </si>
+  <si>
+    <t>Specimen from endometrium (specimen)</t>
+  </si>
+  <si>
+    <t>119373006</t>
+  </si>
+  <si>
+    <t>Amniotic fluid specimen (specimen)</t>
+  </si>
+  <si>
+    <t>119371008</t>
+  </si>
+  <si>
+    <t>Specimen from abscess (specimen)</t>
+  </si>
+  <si>
+    <t>119398007</t>
+  </si>
+  <si>
+    <t>Specimen from brain (specimen)</t>
+  </si>
+  <si>
     <t>430268003</t>
   </si>
   <si>
     <t>Specimen from bone (specimen)</t>
+  </si>
+  <si>
+    <t>119364003</t>
+  </si>
+  <si>
+    <t>Serum specimen (specimen)</t>
+  </si>
+  <si>
+    <t>119386002</t>
+  </si>
+  <si>
+    <t>Specimen from prostate (specimen)</t>
+  </si>
+  <si>
+    <t>122592007</t>
+  </si>
+  <si>
+    <t>Acellular blood (serum or plasma) specimen (specimen)</t>
+  </si>
+  <si>
+    <t>119361006</t>
+  </si>
+  <si>
+    <t>Plasma specimen (specimen)</t>
+  </si>
+  <si>
+    <t>119300005</t>
+  </si>
+  <si>
+    <t>Specimen from blood product (specimen)</t>
   </si>
   <si>
     <t>122556008</t>
@@ -464,7 +536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -599,15 +671,111 @@
         <v>58</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-sterile-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
